--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15960"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -43,7 +43,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>ESkillTrackTowardType</t>
+    <t>ETrackTowardType</t>
   </si>
   <si>
     <t>##</t>
@@ -58,22 +58,46 @@
     <t>水平速度</t>
   </si>
   <si>
-    <t>垂直速度</t>
+    <t>垂直高度</t>
   </si>
   <si>
     <t>朝向类型</t>
   </si>
   <si>
-    <t>人体弹板的轨迹</t>
+    <t>指向方向低速子弹</t>
+  </si>
+  <si>
+    <t>固定朝向</t>
+  </si>
+  <si>
+    <t>固定目标低速子弹</t>
   </si>
   <si>
     <t>固定位置</t>
   </si>
   <si>
-    <t>防御塔子弹轨迹</t>
-  </si>
-  <si>
-    <t>远程兵子弹轨迹</t>
+    <t>跟随目标低速子弹</t>
+  </si>
+  <si>
+    <t>跟随目标</t>
+  </si>
+  <si>
+    <t>指向方向中速子弹</t>
+  </si>
+  <si>
+    <t>固定目标中速子弹</t>
+  </si>
+  <si>
+    <t>跟随目标中速子弹</t>
+  </si>
+  <si>
+    <t>指向方向高速子弹</t>
+  </si>
+  <si>
+    <t>固定目标高速子弹</t>
+  </si>
+  <si>
+    <t>跟随目标高速子弹</t>
   </si>
   <si>
     <t>蓄力抛射轨迹</t>
@@ -89,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +139,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -580,79 +597,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,7 +705,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,13 +1080,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.77678571428571" style="2"/>
     <col min="2" max="2" width="6.10714285714286" style="1" customWidth="1"/>
@@ -1143,62 +1160,153 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="2:6">
       <c r="B4" s="5">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E4" s="1"/>
+        <v>30000</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:6">
       <c r="B5" s="5">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>30000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20000</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="5">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>30000</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:6">
       <c r="B7" s="5">
-        <v>8000</v>
+        <v>2001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>40000</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:6">
+      <c r="B8" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:6">
+      <c r="B9" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:6">
+      <c r="B10" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:6">
+      <c r="B11" s="5">
+        <v>3002</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:6">
+      <c r="B12" s="5">
+        <v>3003</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:6">
+      <c r="B13" s="5">
+        <v>8000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -28,7 +28,7 @@
     <t>hor_speed</t>
   </si>
   <si>
-    <t>ver_speed</t>
+    <t>height</t>
   </si>
   <si>
     <t>toward_type</t>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E10" sqref="E10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="5"/>
@@ -1183,7 +1183,7 @@
         <v>30000</v>
       </c>
       <c r="E5" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -1199,6 +1199,9 @@
       <c r="D6" s="1">
         <v>30000</v>
       </c>
+      <c r="E6" s="1">
+        <v>40000</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1213,6 +1216,7 @@
       <c r="D7" s="1">
         <v>40000</v>
       </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1228,7 +1232,7 @@
         <v>40000</v>
       </c>
       <c r="E8" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>19</v>
@@ -1244,6 +1248,9 @@
       <c r="D9" s="1">
         <v>40000</v>
       </c>
+      <c r="E9" s="1">
+        <v>40000</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1265,6 @@
       <c r="D10" s="1">
         <v>50000</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>50000</v>
       </c>
       <c r="E11" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
@@ -1290,7 +1296,9 @@
       <c r="D12" s="1">
         <v>50000</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>40000</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -13,8 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stone</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>控制点万分比
+趋近0即为趋近释放点
+趋近1即为趋近目标点</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -28,7 +52,10 @@
     <t>hor_speed</t>
   </si>
   <si>
-    <t>height</t>
+    <t>control_factor</t>
+  </si>
+  <si>
+    <t>control_height</t>
   </si>
   <si>
     <t>toward_type</t>
@@ -58,7 +85,10 @@
     <t>水平速度</t>
   </si>
   <si>
-    <t>垂直高度</t>
+    <t>控制点万分比</t>
+  </si>
+  <si>
+    <t>控制点高度</t>
   </si>
   <si>
     <t>朝向类型</t>
@@ -113,7 +143,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +305,11 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1080,25 +1115,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.77678571428571" style="2"/>
     <col min="2" max="2" width="6.10714285714286" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7946428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.2857142857143" style="1" customWidth="1"/>
-    <col min="7" max="7" width="72.1696428571429" style="1" customWidth="1"/>
-    <col min="8" max="16382" width="8.77678571428571" style="1"/>
-    <col min="16383" max="16384" width="8.77678571428571" style="2"/>
+    <col min="4" max="4" width="12.7946428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="72.1696428571429" style="1" customWidth="1"/>
+    <col min="9" max="16383" width="8.77678571428571" style="1"/>
+    <col min="16384" max="16384" width="8.77678571428571" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1117,208 +1154,235 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:6">
+    <row r="4" s="1" customFormat="1" spans="2:7">
       <c r="B4" s="5">
         <v>1001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>30000</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:6">
+    <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="5">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>30000</v>
       </c>
       <c r="E5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:6">
+    <row r="6" s="1" customFormat="1" spans="2:7">
       <c r="B6" s="5">
         <v>1003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>30000</v>
       </c>
       <c r="E6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="1">
         <v>40000</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:6">
+    <row r="7" s="1" customFormat="1" spans="2:7">
       <c r="B7" s="5">
         <v>2001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>40000</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:6">
+    <row r="8" s="1" customFormat="1" spans="2:7">
       <c r="B8" s="5">
         <v>2002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>40000</v>
       </c>
       <c r="E8" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F8" s="1">
         <v>40000</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:6">
+    <row r="9" s="1" customFormat="1" spans="2:7">
       <c r="B9" s="5">
         <v>2003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>40000</v>
       </c>
       <c r="E9" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F9" s="1">
         <v>40000</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:6">
+    <row r="10" s="1" customFormat="1" spans="2:7">
       <c r="B10" s="5">
         <v>3001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>50000</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:6">
+    <row r="11" s="1" customFormat="1" spans="2:7">
       <c r="B11" s="5">
         <v>3002</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>50000</v>
       </c>
       <c r="E11" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F11" s="1">
         <v>40000</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:6">
+    <row r="12" s="1" customFormat="1" spans="2:7">
       <c r="B12" s="5">
         <v>3003</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>50000</v>
       </c>
       <c r="E12" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F12" s="1">
         <v>40000</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="2:6">
+    <row r="13" s="1" customFormat="1" spans="2:7">
       <c r="B13" s="5">
         <v>8000</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
         <v>60000</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -33,6 +33,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t>stone:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+固定朝向 当前未支持，需要碰撞检测机制才能继续做。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -143,7 +165,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +327,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1118,7 +1146,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="6"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="6"/>
@@ -1294,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="E8" s="1">
         <v>8000</v>
@@ -1328,7 +1328,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="E9" s="1">
         <v>8000</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>19</v>
@@ -1362,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="1">
         <v>-2000</v>
@@ -1382,7 +1382,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E12" s="1">
         <v>-2000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="6"/>
@@ -1240,7 +1240,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -1254,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="E5" s="1">
         <v>2000</v>
@@ -1274,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="E6" s="1">
         <v>2000</v>
@@ -1294,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E8" s="1">
         <v>8000</v>
@@ -1328,7 +1328,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E9" s="1">
         <v>8000</v>
@@ -1402,7 +1402,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>21</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -116,40 +116,25 @@
     <t>朝向类型</t>
   </si>
   <si>
-    <t>指向方向低速子弹</t>
-  </si>
-  <si>
-    <t>固定朝向</t>
-  </si>
-  <si>
-    <t>固定目标低速子弹</t>
+    <t>固定位置低速子弹</t>
   </si>
   <si>
     <t>固定位置</t>
   </si>
   <si>
-    <t>跟随目标低速子弹</t>
+    <t>固定位置中速子弹</t>
+  </si>
+  <si>
+    <t>平射中速</t>
   </si>
   <si>
     <t>跟随目标</t>
   </si>
   <si>
-    <t>指向方向中速子弹</t>
-  </si>
-  <si>
-    <t>固定目标中速子弹</t>
-  </si>
-  <si>
-    <t>跟随目标中速子弹</t>
-  </si>
-  <si>
-    <t>指向方向高速子弹</t>
-  </si>
-  <si>
-    <t>固定目标高速子弹</t>
-  </si>
-  <si>
-    <t>跟随目标高速子弹</t>
+    <t>抛射高速</t>
+  </si>
+  <si>
+    <t>平射高速</t>
   </si>
   <si>
     <t>蓄力抛射轨迹</t>
@@ -1143,17 +1128,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.77678571428571" style="2"/>
     <col min="2" max="2" width="6.10714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.4285714285714" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.7946428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.3571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.7142857142857" style="1" customWidth="1"/>
@@ -1234,13 +1219,19 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="2:7">
       <c r="B4" s="5">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>60000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40000</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -1248,164 +1239,88 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="5">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E5" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="F5" s="1">
         <v>40000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:7">
       <c r="B6" s="5">
-        <v>1003</v>
+        <v>2004</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:7">
       <c r="B7" s="5">
-        <v>2001</v>
+        <v>3003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>80000</v>
+        <v>100000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:7">
       <c r="B8" s="5">
-        <v>2002</v>
+        <v>3004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>80000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>40000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:7">
       <c r="B9" s="5">
-        <v>2003</v>
+        <v>8000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>80000</v>
       </c>
-      <c r="E9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F9" s="1">
-        <v>40000</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="2:7">
-      <c r="B10" s="5">
-        <v>3001</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100000</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:7">
-      <c r="B11" s="5">
-        <v>3002</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:7">
-      <c r="B12" s="5">
-        <v>3003</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>40000</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:7">
-      <c r="B13" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1">
-        <v>80000</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowWidth="28000" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -122,13 +122,16 @@
     <t>固定位置</t>
   </si>
   <si>
+    <t>平射低速</t>
+  </si>
+  <si>
+    <t>跟随目标</t>
+  </si>
+  <si>
     <t>固定位置中速子弹</t>
   </si>
   <si>
     <t>平射中速</t>
-  </si>
-  <si>
-    <t>跟随目标</t>
   </si>
   <si>
     <t>抛射高速</t>
@@ -1128,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="6"/>
@@ -1239,63 +1242,55 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="2:7">
       <c r="B5" s="5">
-        <v>2002</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>80000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:7">
       <c r="B6" s="5">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>80000</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40000</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:7">
       <c r="B7" s="5">
-        <v>3003</v>
+        <v>2004</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-2000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:7">
       <c r="B8" s="5">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -1303,23 +1298,41 @@
       <c r="D8" s="1">
         <v>100000</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>40000</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:7">
       <c r="B9" s="5">
-        <v>8000</v>
+        <v>3004</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:7">
+      <c r="B10" s="5">
+        <v>8000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
         <v>80000</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Track.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,34 +33,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t>stone:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t xml:space="preserve">
-固定朝向 当前未支持，需要碰撞检测机制才能继续做。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -80,9 +58,6 @@
     <t>control_height</t>
   </si>
   <si>
-    <t>toward_type</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -92,9 +67,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>ETrackTowardType</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -113,31 +85,22 @@
     <t>控制点高度</t>
   </si>
   <si>
-    <t>朝向类型</t>
-  </si>
-  <si>
-    <t>固定位置低速子弹</t>
-  </si>
-  <si>
-    <t>固定位置</t>
-  </si>
-  <si>
-    <t>平射低速</t>
-  </si>
-  <si>
-    <t>跟随目标</t>
-  </si>
-  <si>
-    <t>固定位置中速子弹</t>
-  </si>
-  <si>
-    <t>平射中速</t>
-  </si>
-  <si>
-    <t>抛射高速</t>
-  </si>
-  <si>
-    <t>平射高速</t>
+    <t>低速贝塞尔</t>
+  </si>
+  <si>
+    <t>低速平射</t>
+  </si>
+  <si>
+    <t>中速贝塞尔</t>
+  </si>
+  <si>
+    <t>中速平射</t>
+  </si>
+  <si>
+    <t>高速贝塞尔</t>
+  </si>
+  <si>
+    <t>高速平射</t>
   </si>
   <si>
     <t>蓄力抛射轨迹</t>
@@ -153,7 +116,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,12 +278,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1131,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.77678571428571" defaultRowHeight="15.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.77678571428571" style="2"/>
     <col min="2" max="2" width="6.10714285714286" style="1" customWidth="1"/>
@@ -1145,13 +1102,11 @@
     <col min="4" max="4" width="12.7946428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.3571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.7142857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="72.1696428571429" style="1" customWidth="1"/>
-    <col min="9" max="16383" width="8.77678571428571" style="1"/>
-    <col min="16384" max="16384" width="8.77678571428571" style="2"/>
+    <col min="7" max="16381" width="8.77678571428571" style="1"/>
+    <col min="16382" max="16384" width="8.77678571428571" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1170,62 +1125,53 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:7">
+    <row r="4" s="1" customFormat="1" spans="2:6">
       <c r="B4" s="5">
         <v>1002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>60000</v>
@@ -1236,30 +1182,24 @@
       <c r="F4" s="1">
         <v>40000</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:7">
+    <row r="5" s="1" customFormat="1" spans="2:4">
       <c r="B5" s="5">
         <v>1004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>60000</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:7">
+    <row r="6" s="1" customFormat="1" spans="2:6">
       <c r="B6" s="5">
         <v>2002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>80000</v>
@@ -1270,30 +1210,24 @@
       <c r="F6" s="1">
         <v>40000</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:7">
+    <row r="7" s="1" customFormat="1" spans="2:4">
       <c r="B7" s="5">
         <v>2004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>80000</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:7">
+    <row r="8" s="1" customFormat="1" spans="2:6">
       <c r="B8" s="5">
         <v>3003</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>100000</v>
@@ -1304,36 +1238,27 @@
       <c r="F8" s="1">
         <v>40000</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:7">
+    <row r="9" s="1" customFormat="1" spans="2:4">
       <c r="B9" s="5">
         <v>3004</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>100000</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:7">
+    <row r="10" s="1" customFormat="1" spans="2:4">
       <c r="B10" s="5">
         <v>8000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>80000</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
